--- a/ftest/data/fm6/Worked_example_policy_calculation_4.xlsx
+++ b/ftest/data/fm6/Worked_example_policy_calculation_4.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\2 Working Parties\Financial Module\Worked examples for public\01 Final\Worked_example_policy_calculation_4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Joh\testgit\ktest\ftest\data\fm6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="18960" windowHeight="8655"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="18960" windowHeight="8652"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="13" r:id="rId1"/>
     <sheet name="Policy Calculation" sheetId="11" r:id="rId2"/>
     <sheet name="Oasis Implementation" sheetId="12" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="139">
   <si>
     <t>Limit</t>
   </si>
@@ -266,34 +266,10 @@
     <t>Oasis Data tables</t>
   </si>
   <si>
-    <t>AGG_ID</t>
-  </si>
-  <si>
     <t>PolicyTC</t>
   </si>
   <si>
-    <t>LAYER_ID</t>
-  </si>
-  <si>
-    <t>POLICYTC_ID</t>
-  </si>
-  <si>
-    <t>AREAPERIL_ID</t>
-  </si>
-  <si>
-    <t>VULNERABILITY_ID</t>
-  </si>
-  <si>
-    <t>TIV</t>
-  </si>
-  <si>
     <t>GUL = V * DR</t>
-  </si>
-  <si>
-    <t>Exposure item file</t>
-  </si>
-  <si>
-    <t>GROUP_ID</t>
   </si>
   <si>
     <t>Exposures</t>
@@ -542,52 +518,85 @@
     <t>S1 = Max(GUL-D,0)</t>
   </si>
   <si>
-    <t>LEVEL_ID</t>
-  </si>
-  <si>
-    <t>CALCRULE_ID</t>
-  </si>
-  <si>
-    <t>ALLOCRULE_ID</t>
-  </si>
-  <si>
-    <t>SOURCERULE_ID</t>
-  </si>
-  <si>
-    <t>LEVELRULE_ID</t>
-  </si>
-  <si>
-    <t>DED</t>
-  </si>
-  <si>
-    <t>LIM</t>
-  </si>
-  <si>
-    <t>SHARE_PROP_OF_LIM</t>
-  </si>
-  <si>
-    <t>DEDUCTIBLE_PROP_OF_LOSS</t>
-  </si>
-  <si>
-    <t>LIMIT_PROP_OF_LOSS</t>
-  </si>
-  <si>
-    <t>DEDUCTIBLE_PROP_OF_TIV</t>
-  </si>
-  <si>
-    <t>LIMIT_PROP_OF_TIV</t>
-  </si>
-  <si>
-    <t>DEDUCTIBLE_PROP_OF_LIMIT</t>
+    <t>coverage_id</t>
+  </si>
+  <si>
+    <t>tiv</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>areaperil_id</t>
+  </si>
+  <si>
+    <t>vulnerability_id</t>
+  </si>
+  <si>
+    <t>group_id</t>
+  </si>
+  <si>
+    <t>Item file</t>
+  </si>
+  <si>
+    <t>from_agg_id</t>
+  </si>
+  <si>
+    <t>level_id</t>
+  </si>
+  <si>
+    <t>to_agg_id</t>
+  </si>
+  <si>
+    <t>policytc_id</t>
+  </si>
+  <si>
+    <t>calcrule_id</t>
+  </si>
+  <si>
+    <t>allocrule_id</t>
+  </si>
+  <si>
+    <t>ccy_id</t>
+  </si>
+  <si>
+    <t>deductible</t>
+  </si>
+  <si>
+    <t>limits</t>
+  </si>
+  <si>
+    <t>share_prop_of_lim</t>
+  </si>
+  <si>
+    <t>deductible_prop_of_loss</t>
+  </si>
+  <si>
+    <t>limit_prop_of_loss</t>
+  </si>
+  <si>
+    <t>deductible_prop_of_tiv</t>
+  </si>
+  <si>
+    <t>limit_prop_of_tiv</t>
+  </si>
+  <si>
+    <t>deductible_prop_of_limit</t>
+  </si>
+  <si>
+    <t>layer_id</t>
+  </si>
+  <si>
+    <t>agg_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -846,7 +855,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -976,7 +985,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1087,6 +1096,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1122,6 +1148,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1302,121 +1345,121 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" s="42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="42" t="s">
+    <row r="21" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="42" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="42" t="s">
-        <v>106</v>
-      </c>
       <c r="Q21" s="23"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" s="42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24" s="42" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="42" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="43" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1438,50 +1481,50 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="84" zoomScaleNormal="84" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="25" style="2" customWidth="1"/>
     <col min="3" max="3" width="11" style="8" customWidth="1"/>
     <col min="4" max="4" width="15" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.88671875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1489,7 +1532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1497,7 +1540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -1505,7 +1548,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
@@ -1513,7 +1556,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1521,7 +1564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1529,7 +1572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -1537,7 +1580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1545,7 +1588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -1553,72 +1596,72 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -1636,7 +1679,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="3"/>
       <c r="C34" s="9"/>
@@ -1652,11 +1695,11 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="48"/>
       <c r="B35" s="49"/>
       <c r="C35" s="59" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D35" s="59"/>
       <c r="E35" s="59"/>
@@ -1664,17 +1707,17 @@
       <c r="G35" s="49"/>
       <c r="H35" s="49"/>
       <c r="I35" s="59" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="J35" s="59"/>
       <c r="K35" s="59"/>
       <c r="L35" s="59"/>
       <c r="M35" s="49"/>
       <c r="N35" s="50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="39" t="s">
         <v>37</v>
       </c>
@@ -1710,7 +1753,7 @@
       <c r="M36" s="44"/>
       <c r="N36" s="51"/>
     </row>
-    <row r="37" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
         <v>6</v>
       </c>
@@ -1728,7 +1771,7 @@
       <c r="M37" s="44"/>
       <c r="N37" s="51"/>
     </row>
-    <row r="38" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="37" t="s">
         <v>26</v>
       </c>
@@ -1764,12 +1807,12 @@
       <c r="M38" s="44"/>
       <c r="N38" s="51"/>
     </row>
-    <row r="39" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="38" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C39" s="44"/>
       <c r="D39" s="44"/>
@@ -1784,7 +1827,7 @@
       <c r="M39" s="44"/>
       <c r="N39" s="51"/>
     </row>
-    <row r="40" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="37" t="s">
         <v>1</v>
       </c>
@@ -1806,7 +1849,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="37" t="s">
         <v>0</v>
       </c>
@@ -1828,7 +1871,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="37"/>
       <c r="B42" s="6"/>
       <c r="C42" s="10"/>
@@ -1844,7 +1887,7 @@
       <c r="M42" s="44"/>
       <c r="N42" s="51"/>
     </row>
-    <row r="43" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="39" t="s">
         <v>43</v>
       </c>
@@ -1862,7 +1905,7 @@
       <c r="M43" s="44"/>
       <c r="N43" s="51"/>
     </row>
-    <row r="44" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="37" t="s">
         <v>34</v>
       </c>
@@ -1898,7 +1941,7 @@
       <c r="M44" s="44"/>
       <c r="N44" s="51"/>
     </row>
-    <row r="45" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="37"/>
       <c r="B45" s="6"/>
       <c r="C45" s="10"/>
@@ -1914,7 +1957,7 @@
       <c r="M45" s="44"/>
       <c r="N45" s="51"/>
     </row>
-    <row r="46" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="39" t="s">
         <v>35</v>
       </c>
@@ -1934,12 +1977,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="37" t="s">
         <v>36</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C47" s="12">
         <f>C44*C38</f>
@@ -1981,12 +2024,12 @@
         <v>336900</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C48" s="58"/>
       <c r="D48" s="58"/>
@@ -2004,12 +2047,12 @@
         <v>286900</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="37" t="s">
         <v>42</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C49" s="58"/>
       <c r="D49" s="58"/>
@@ -2027,12 +2070,12 @@
         <v>286900</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="53" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B50" s="54" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C50" s="55"/>
       <c r="D50" s="55"/>
@@ -2077,44 +2120,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18:L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.21875" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>57</v>
       </c>
@@ -2131,7 +2173,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
         <v>76</v>
       </c>
@@ -2148,17 +2190,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="29"/>
       <c r="B6" s="29"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B7" s="32"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>64</v>
       </c>
@@ -2166,7 +2208,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>65</v>
       </c>
@@ -2174,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>66</v>
       </c>
@@ -2182,7 +2224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>1</v>
       </c>
@@ -2190,7 +2232,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>0</v>
       </c>
@@ -2198,20 +2240,20 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>75</v>
       </c>
@@ -2219,10 +2261,10 @@
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
         <v>69</v>
       </c>
@@ -2232,22 +2274,28 @@
       <c r="C18" s="35"/>
       <c r="D18" s="24"/>
       <c r="E18" s="33" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>1</v>
       </c>
@@ -2265,13 +2313,19 @@
         <v>1</v>
       </c>
       <c r="H19" s="17">
+        <v>1</v>
+      </c>
+      <c r="I19" s="17">
+        <v>1</v>
+      </c>
+      <c r="K19" s="17">
+        <v>1</v>
+      </c>
+      <c r="L19" s="17">
         <v>1000000</v>
       </c>
-      <c r="I19" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>2</v>
       </c>
@@ -2283,19 +2337,25 @@
         <v>2</v>
       </c>
       <c r="F20" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="17">
+        <v>1</v>
+      </c>
+      <c r="H20" s="17">
         <v>2</v>
       </c>
-      <c r="H20" s="17">
+      <c r="I20" s="17">
+        <v>1</v>
+      </c>
+      <c r="K20" s="17">
+        <v>2</v>
+      </c>
+      <c r="L20" s="17">
         <v>100000</v>
       </c>
-      <c r="I20" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>3</v>
       </c>
@@ -2307,19 +2367,25 @@
         <v>3</v>
       </c>
       <c r="F21" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" s="17">
+        <v>1</v>
+      </c>
+      <c r="H21" s="17">
         <v>3</v>
       </c>
-      <c r="H21" s="17">
+      <c r="I21" s="17">
+        <v>1</v>
+      </c>
+      <c r="K21" s="17">
+        <v>3</v>
+      </c>
+      <c r="L21" s="17">
         <v>50000</v>
       </c>
-      <c r="I21" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
         <v>4</v>
       </c>
@@ -2331,125 +2397,155 @@
         <v>4</v>
       </c>
       <c r="F22" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G22" s="17">
+        <v>1</v>
+      </c>
+      <c r="H22" s="17">
         <v>4</v>
       </c>
-      <c r="H22" s="17">
+      <c r="I22" s="17">
+        <v>1</v>
+      </c>
+      <c r="K22" s="17">
+        <v>4</v>
+      </c>
+      <c r="L22" s="17">
         <v>20000</v>
       </c>
-      <c r="I22" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
         <v>5</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C23" s="21"/>
       <c r="E23" s="17">
         <v>5</v>
       </c>
       <c r="F23" s="17">
+        <v>5</v>
+      </c>
+      <c r="G23" s="17">
         <v>2</v>
       </c>
-      <c r="G23" s="17">
-        <v>1</v>
-      </c>
       <c r="H23" s="17">
-        <v>1700000</v>
+        <v>1</v>
       </c>
       <c r="I23" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23" s="17">
+        <v>5</v>
+      </c>
+      <c r="L23" s="17">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="20">
         <v>6</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C24" s="21"/>
       <c r="E24" s="17">
         <v>6</v>
       </c>
       <c r="F24" s="17">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G24" s="17">
         <v>2</v>
       </c>
       <c r="H24" s="17">
-        <v>30000</v>
+        <v>2</v>
       </c>
       <c r="I24" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K24" s="17">
+        <v>6</v>
+      </c>
+      <c r="L24" s="17">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
         <v>7</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C25" s="21"/>
       <c r="E25" s="17">
         <v>7</v>
       </c>
       <c r="F25" s="17">
+        <v>7</v>
+      </c>
+      <c r="G25" s="17">
         <v>2</v>
       </c>
-      <c r="G25" s="17">
+      <c r="H25" s="17">
         <v>3</v>
-      </c>
-      <c r="H25" s="17">
-        <v>1000000</v>
       </c>
       <c r="I25" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K25" s="17">
+        <v>7</v>
+      </c>
+      <c r="L25" s="17">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
         <v>8</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C26" s="21"/>
       <c r="E26" s="17">
         <v>8</v>
       </c>
       <c r="F26" s="17">
+        <v>8</v>
+      </c>
+      <c r="G26" s="17">
         <v>2</v>
       </c>
-      <c r="G26" s="17">
+      <c r="H26" s="17">
         <v>4</v>
-      </c>
-      <c r="H26" s="17">
-        <v>50000</v>
       </c>
       <c r="I26" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26" s="17">
+        <v>8</v>
+      </c>
+      <c r="L26" s="17">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
         <v>67</v>
       </c>
@@ -2464,7 +2560,7 @@
       <c r="F30" s="22"/>
       <c r="G30" s="21"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>1</v>
       </c>
@@ -2472,167 +2568,137 @@
         <v>1</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
       <c r="G31" s="21"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="C34" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="17">
+        <v>1</v>
+      </c>
+      <c r="B35" s="17">
+        <v>1</v>
+      </c>
+      <c r="C35" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="17">
+        <v>2</v>
+      </c>
+      <c r="B36" s="17">
+        <v>1</v>
+      </c>
+      <c r="C36" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="17">
+        <v>3</v>
+      </c>
+      <c r="B37" s="17">
+        <v>1</v>
+      </c>
+      <c r="C37" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="17">
+        <v>4</v>
+      </c>
+      <c r="B38" s="17">
+        <v>1</v>
+      </c>
+      <c r="C38" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="17">
+        <v>5</v>
+      </c>
+      <c r="B39" s="17">
+        <v>1</v>
+      </c>
+      <c r="C39" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="17">
+        <v>6</v>
+      </c>
+      <c r="B40" s="17">
+        <v>1</v>
+      </c>
+      <c r="C40" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="17">
+        <v>7</v>
+      </c>
+      <c r="B41" s="17">
+        <v>1</v>
+      </c>
+      <c r="C41" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="17">
+        <v>8</v>
+      </c>
+      <c r="B42" s="17">
+        <v>1</v>
+      </c>
+      <c r="C42" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="D34" s="33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
-        <v>1</v>
-      </c>
-      <c r="B35" s="17">
-        <v>1</v>
-      </c>
-      <c r="C35" s="17">
-        <v>1</v>
-      </c>
-      <c r="D35" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
-        <v>1</v>
-      </c>
-      <c r="B36" s="17">
-        <v>2</v>
-      </c>
-      <c r="C36" s="17">
-        <v>1</v>
-      </c>
-      <c r="D36" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="17">
-        <v>1</v>
-      </c>
-      <c r="B37" s="17">
-        <v>3</v>
-      </c>
-      <c r="C37" s="17">
-        <v>1</v>
-      </c>
-      <c r="D37" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="17">
-        <v>1</v>
-      </c>
-      <c r="B38" s="17">
-        <v>4</v>
-      </c>
-      <c r="C38" s="17">
-        <v>1</v>
-      </c>
-      <c r="D38" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="17">
-        <v>1</v>
-      </c>
-      <c r="B39" s="17">
-        <v>5</v>
-      </c>
-      <c r="C39" s="17">
-        <v>1</v>
-      </c>
-      <c r="D39" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
-        <v>1</v>
-      </c>
-      <c r="B40" s="17">
-        <v>6</v>
-      </c>
-      <c r="C40" s="17">
-        <v>1</v>
-      </c>
-      <c r="D40" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="17">
-        <v>1</v>
-      </c>
-      <c r="B41" s="17">
-        <v>7</v>
-      </c>
-      <c r="C41" s="17">
-        <v>1</v>
-      </c>
-      <c r="D41" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="17">
-        <v>1</v>
-      </c>
-      <c r="B42" s="17">
-        <v>8</v>
-      </c>
-      <c r="C42" s="17">
-        <v>1</v>
-      </c>
-      <c r="D42" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>83</v>
-      </c>
       <c r="C45" s="33" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="17">
         <v>1</v>
       </c>
@@ -2645,60 +2711,51 @@
       <c r="D46" s="17">
         <v>1</v>
       </c>
-      <c r="E46" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D49" s="33" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F49" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G49" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="H49" s="33" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L49" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="M49" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="N49" s="17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="17">
         <v>1</v>
       </c>
@@ -2709,26 +2766,32 @@
         <v>0</v>
       </c>
       <c r="D50" s="17">
+        <v>2</v>
+      </c>
+      <c r="E50" s="17">
+        <v>50000</v>
+      </c>
+      <c r="F50" s="17">
+        <v>2500000</v>
+      </c>
+      <c r="G50" s="17">
         <v>0</v>
       </c>
-      <c r="E50" s="17">
+      <c r="H50" s="17">
         <v>0</v>
       </c>
-      <c r="F50" s="17">
-        <v>2</v>
-      </c>
-      <c r="G50" s="17">
-        <v>50000</v>
-      </c>
-      <c r="H50" s="17">
-        <v>2500000</v>
-      </c>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
+      <c r="I50" s="17">
+        <v>0</v>
+      </c>
+      <c r="J50" s="17">
+        <v>0</v>
+      </c>
+      <c r="K50" s="17">
+        <v>0</v>
+      </c>
+      <c r="L50" s="17">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/ftest/data/fm6/Worked_example_policy_calculation_4.xlsx
+++ b/ftest/data/fm6/Worked_example_policy_calculation_4.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Joh\testgit\ktest\ftest\data\fm6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\Joh\git\ktest\ftest\data\fm6\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C08E5E5A-2755-4D98-A0CB-D1B48E959272}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="18960" windowHeight="8652"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="18960" windowHeight="8652" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="13" r:id="rId1"/>
     <sheet name="Policy Calculation" sheetId="11" r:id="rId2"/>
-    <sheet name="Oasis Implementation" sheetId="12" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
   <si>
     <t>Limit</t>
   </si>
@@ -188,97 +188,7 @@
     <t>The Insurer is protected from small claims by the deductible and has a maximum exposure of the sum of the individual or combined limits.</t>
   </si>
   <si>
-    <t>Profile</t>
-  </si>
-  <si>
-    <t>Meta data structure (Profile)</t>
-  </si>
-  <si>
-    <t>ProfileDescription</t>
-  </si>
-  <si>
-    <t>ProfileName</t>
-  </si>
-  <si>
-    <t>ProfileID</t>
-  </si>
-  <si>
-    <t>CalcRule</t>
-  </si>
-  <si>
-    <t>AllocRule</t>
-  </si>
-  <si>
-    <t>A_1</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Attributes</t>
-  </si>
-  <si>
-    <t>PolicyTC_ID</t>
-  </si>
-  <si>
-    <t>CCY_ID</t>
-  </si>
-  <si>
-    <t>PROG_ID</t>
-  </si>
-  <si>
-    <t>Prog (User defined)</t>
-  </si>
-  <si>
-    <t>ITEM_ID</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Location 1 Structure</t>
-  </si>
-  <si>
-    <t>Location 1 Contents</t>
-  </si>
-  <si>
-    <t>Location 1 Other Structure</t>
-  </si>
-  <si>
-    <t>Location 1 Time Element</t>
-  </si>
-  <si>
-    <t>Exposure Dictionary (User defined)</t>
-  </si>
-  <si>
-    <t>Deductible and Limit</t>
-  </si>
-  <si>
-    <t>ACCOUNT_ID</t>
-  </si>
-  <si>
-    <t>PROG_NAME</t>
-  </si>
-  <si>
-    <t>Programme</t>
-  </si>
-  <si>
-    <t>Oasis Data tables</t>
-  </si>
-  <si>
-    <t>PolicyTC</t>
-  </si>
-  <si>
     <t>GUL = V * DR</t>
-  </si>
-  <si>
-    <t>Exposures</t>
-  </si>
-  <si>
-    <t>Financial Module</t>
-  </si>
-  <si>
-    <t>Profile A_1</t>
   </si>
   <si>
     <t>S2 = Min(S1,L)</t>
@@ -456,9 +366,6 @@
   </si>
   <si>
     <t>Insured Loss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residential policy with multiple coverages and locations and blanket policy terms. </t>
   </si>
   <si>
     <r>
@@ -503,102 +410,24 @@
     <t xml:space="preserve">A  deductible and limit is applied to the sum of the ground up losses across all coverages and locations. </t>
   </si>
   <si>
-    <t>Location 2 Structure</t>
-  </si>
-  <si>
-    <t>Location 2 Other Structure</t>
-  </si>
-  <si>
-    <t>Location 2 Contents</t>
-  </si>
-  <si>
-    <t>Location 2 Time Element</t>
-  </si>
-  <si>
     <t>S1 = Max(GUL-D,0)</t>
   </si>
   <si>
-    <t>coverage_id</t>
-  </si>
-  <si>
-    <t>tiv</t>
-  </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>areaperil_id</t>
-  </si>
-  <si>
-    <t>vulnerability_id</t>
-  </si>
-  <si>
-    <t>group_id</t>
-  </si>
-  <si>
-    <t>Item file</t>
-  </si>
-  <si>
-    <t>from_agg_id</t>
-  </si>
-  <si>
-    <t>level_id</t>
-  </si>
-  <si>
-    <t>to_agg_id</t>
-  </si>
-  <si>
-    <t>policytc_id</t>
-  </si>
-  <si>
-    <t>calcrule_id</t>
-  </si>
-  <si>
-    <t>allocrule_id</t>
-  </si>
-  <si>
-    <t>ccy_id</t>
-  </si>
-  <si>
-    <t>deductible</t>
-  </si>
-  <si>
-    <t>limits</t>
-  </si>
-  <si>
-    <t>share_prop_of_lim</t>
-  </si>
-  <si>
-    <t>deductible_prop_of_loss</t>
-  </si>
-  <si>
-    <t>limit_prop_of_loss</t>
-  </si>
-  <si>
-    <t>deductible_prop_of_tiv</t>
-  </si>
-  <si>
-    <t>limit_prop_of_tiv</t>
-  </si>
-  <si>
-    <t>deductible_prop_of_limit</t>
-  </si>
-  <si>
-    <t>layer_id</t>
-  </si>
-  <si>
-    <t>agg_id</t>
+    <t>Back-allocation allocrule 1 (GU)</t>
+  </si>
+  <si>
+    <t>Back-allocation allocrule 2 (Prior Level)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,15 +452,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -682,13 +502,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -710,64 +523,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -854,10 +615,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -889,116 +650,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1340,10 +1078,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1352,120 +1090,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="13"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="14"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="14"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="42" t="s">
-        <v>89</v>
+      <c r="B17" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="42" t="s">
-        <v>90</v>
+      <c r="B18" s="22" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q21" s="23"/>
+      <c r="B21" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q21" s="16"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="42" t="s">
-        <v>93</v>
+      <c r="B22" s="22" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="42" t="s">
-        <v>91</v>
+      <c r="B23" s="22" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="42" t="s">
-        <v>99</v>
+      <c r="B24" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="43" t="s">
-        <v>92</v>
+      <c r="B25" s="23" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" location="'Policy Calculation'!A1" display="Policy calculation"/>
-    <hyperlink ref="A15" location="'Oasis Implementation'!A1" display="Oasis Implementation"/>
+    <hyperlink ref="A13" location="'Policy Calculation'!A1" display="Policy calculation" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A15" location="'Oasis Implementation'!A1" display="Oasis Implementation" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1473,13 +1211,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P62"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="84" zoomScaleNormal="84" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="L54" sqref="I54:L54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1510,7 +1250,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1655,7 +1395,7 @@
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
@@ -1696,65 +1436,65 @@
       <c r="P34" s="5"/>
     </row>
     <row r="35" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="59"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="50" t="s">
-        <v>107</v>
+      <c r="A35" s="28"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="30" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="41" t="s">
+      <c r="E36" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="41" t="s">
+      <c r="F36" s="21" t="s">
         <v>32</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="41" t="s">
+      <c r="I36" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="J36" s="41" t="s">
+      <c r="J36" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K36" s="41" t="s">
+      <c r="K36" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="L36" s="41" t="s">
+      <c r="L36" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="M36" s="44"/>
-      <c r="N36" s="51"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="31"/>
     </row>
     <row r="37" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="6"/>
@@ -1768,111 +1508,111 @@
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="51"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="31"/>
     </row>
     <row r="38" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="11">
         <v>1000000</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="11">
         <v>100000</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="11">
         <v>50000</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="11">
         <v>20000</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="12">
+      <c r="I38" s="11">
         <v>1700000</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J38" s="11">
         <v>30000</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K38" s="11">
         <v>1000000</v>
       </c>
-      <c r="L38" s="12">
+      <c r="L38" s="11">
         <v>50000</v>
       </c>
-      <c r="M38" s="44"/>
-      <c r="N38" s="51"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="31"/>
     </row>
     <row r="39" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="11"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="44"/>
-      <c r="N39" s="51"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="31"/>
     </row>
     <row r="40" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="44"/>
-      <c r="N40" s="57">
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="37">
         <v>50000</v>
       </c>
     </row>
     <row r="41" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="61"/>
-      <c r="L41" s="61"/>
-      <c r="M41" s="44"/>
-      <c r="N41" s="57">
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="37">
         <v>2500000</v>
       </c>
     </row>
     <row r="42" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="37"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="6"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -1884,65 +1624,65 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
-      <c r="M42" s="44"/>
-      <c r="N42" s="51"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="31"/>
     </row>
     <row r="43" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="51"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="31"/>
     </row>
     <row r="44" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="12">
         <v>0.1</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="12">
         <v>0.1</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="12">
         <v>0.05</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="12">
         <v>0.02</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="13">
+      <c r="I44" s="12">
         <v>0.1</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J44" s="12">
         <v>0.1</v>
       </c>
-      <c r="K44" s="13">
+      <c r="K44" s="12">
         <v>0.05</v>
       </c>
-      <c r="L44" s="13">
+      <c r="L44" s="12">
         <v>0.02</v>
       </c>
-      <c r="M44" s="44"/>
-      <c r="N44" s="51"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="31"/>
     </row>
     <row r="45" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="37"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="6"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -1954,144 +1694,242 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="51"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="31"/>
     </row>
     <row r="46" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="47" t="s">
+      <c r="B46" s="25"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="27" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="12">
+        <v>55</v>
+      </c>
+      <c r="C47" s="11">
         <f>C44*C38</f>
         <v>100000</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="11">
         <f t="shared" ref="D47:F47" si="0">D44*D38</f>
         <v>10000</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="11">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="11">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="12">
+      <c r="I47" s="11">
         <f>I44*I38</f>
         <v>170000</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J47" s="11">
         <f t="shared" ref="J47:L47" si="1">J44*J38</f>
         <v>3000</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K47" s="11">
         <f t="shared" si="1"/>
         <v>50000</v>
       </c>
-      <c r="L47" s="12">
+      <c r="L47" s="11">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="M47" s="44"/>
-      <c r="N47" s="52">
+      <c r="M47" s="24"/>
+      <c r="N47" s="32">
         <f>SUM(C47:L47)</f>
         <v>336900</v>
       </c>
     </row>
     <row r="48" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
+        <v>79</v>
+      </c>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58"/>
-      <c r="L48" s="58"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="52">
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="32">
         <f>MAX(N47-N40,0)</f>
         <v>286900</v>
       </c>
     </row>
     <row r="49" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58"/>
+        <v>56</v>
+      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
-      <c r="I49" s="58"/>
-      <c r="J49" s="58"/>
-      <c r="K49" s="58"/>
-      <c r="L49" s="58"/>
-      <c r="M49" s="44"/>
-      <c r="N49" s="52">
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="32">
         <f>IF(N41=0,N48,MIN(N41,N48))</f>
         <v>286900</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="53" t="s">
-        <v>102</v>
-      </c>
-      <c r="B50" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="56">
+      <c r="A50" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="36">
         <f>N49</f>
         <v>286900</v>
       </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="42">
+        <f>$N$50*C47/SUM($C$47:$L$47)</f>
+        <v>85158.800831107146</v>
+      </c>
+      <c r="D52" s="42">
+        <f t="shared" ref="D52:F52" si="2">$N$50*D47/SUM($C$47:$L$47)</f>
+        <v>8515.8800831107146</v>
+      </c>
+      <c r="E52" s="42">
+        <f t="shared" si="2"/>
+        <v>2128.9700207776787</v>
+      </c>
+      <c r="F52" s="42">
+        <f t="shared" si="2"/>
+        <v>340.63520332442863</v>
+      </c>
+      <c r="I52" s="42">
+        <f t="shared" ref="I52:L52" si="3">$N$50*I47/SUM($C$47:$L$47)</f>
+        <v>144769.96141288217</v>
+      </c>
+      <c r="J52" s="42">
+        <f t="shared" si="3"/>
+        <v>2554.7640249332144</v>
+      </c>
+      <c r="K52" s="42">
+        <f t="shared" si="3"/>
+        <v>42579.400415553573</v>
+      </c>
+      <c r="L52" s="42">
+        <f t="shared" si="3"/>
+        <v>851.58800831107158</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="42">
+        <f>$N$50*C47/SUM($C$47:$L$47)</f>
+        <v>85158.800831107146</v>
+      </c>
+      <c r="D53" s="42">
+        <f t="shared" ref="D53:F53" si="4">$N$50*D47/SUM($C$47:$L$47)</f>
+        <v>8515.8800831107146</v>
+      </c>
+      <c r="E53" s="42">
+        <f t="shared" si="4"/>
+        <v>2128.9700207776787</v>
+      </c>
+      <c r="F53" s="42">
+        <f t="shared" si="4"/>
+        <v>340.63520332442863</v>
+      </c>
+      <c r="I53" s="42">
+        <f t="shared" ref="I53:L53" si="5">$N$50*I47/SUM($C$47:$L$47)</f>
+        <v>144769.96141288217</v>
+      </c>
+      <c r="J53" s="42">
+        <f t="shared" si="5"/>
+        <v>2554.7640249332144</v>
+      </c>
+      <c r="K53" s="42">
+        <f t="shared" si="5"/>
+        <v>42579.400415553573</v>
+      </c>
+      <c r="L53" s="42">
+        <f t="shared" si="5"/>
+        <v>851.58800831107158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C55"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C56"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C57"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C58"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C59"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C60"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C61"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C62"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2113,689 +1951,4 @@
     <oddFooter>&amp;L&amp;D&amp;C&amp;P&amp;R&amp;F&amp; &amp;&amp;[Tab]</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L50"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18:L18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="19.21875" customWidth="1"/>
-    <col min="13" max="13" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" customWidth="1"/>
-    <col min="17" max="17" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="17">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17">
-        <v>1</v>
-      </c>
-      <c r="E5" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="32"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="26">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="26">
-        <v>2500000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="K18" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
-        <v>1</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="E19" s="17">
-        <v>1</v>
-      </c>
-      <c r="F19" s="17">
-        <v>1</v>
-      </c>
-      <c r="G19" s="17">
-        <v>1</v>
-      </c>
-      <c r="H19" s="17">
-        <v>1</v>
-      </c>
-      <c r="I19" s="17">
-        <v>1</v>
-      </c>
-      <c r="K19" s="17">
-        <v>1</v>
-      </c>
-      <c r="L19" s="17">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="20">
-        <v>2</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="E20" s="17">
-        <v>2</v>
-      </c>
-      <c r="F20" s="17">
-        <v>2</v>
-      </c>
-      <c r="G20" s="17">
-        <v>1</v>
-      </c>
-      <c r="H20" s="17">
-        <v>2</v>
-      </c>
-      <c r="I20" s="17">
-        <v>1</v>
-      </c>
-      <c r="K20" s="17">
-        <v>2</v>
-      </c>
-      <c r="L20" s="17">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="20">
-        <v>3</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="E21" s="17">
-        <v>3</v>
-      </c>
-      <c r="F21" s="17">
-        <v>3</v>
-      </c>
-      <c r="G21" s="17">
-        <v>1</v>
-      </c>
-      <c r="H21" s="17">
-        <v>3</v>
-      </c>
-      <c r="I21" s="17">
-        <v>1</v>
-      </c>
-      <c r="K21" s="17">
-        <v>3</v>
-      </c>
-      <c r="L21" s="17">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="20">
-        <v>4</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="21"/>
-      <c r="E22" s="17">
-        <v>4</v>
-      </c>
-      <c r="F22" s="17">
-        <v>4</v>
-      </c>
-      <c r="G22" s="17">
-        <v>1</v>
-      </c>
-      <c r="H22" s="17">
-        <v>4</v>
-      </c>
-      <c r="I22" s="17">
-        <v>1</v>
-      </c>
-      <c r="K22" s="17">
-        <v>4</v>
-      </c>
-      <c r="L22" s="17">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="20">
-        <v>5</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="21"/>
-      <c r="E23" s="17">
-        <v>5</v>
-      </c>
-      <c r="F23" s="17">
-        <v>5</v>
-      </c>
-      <c r="G23" s="17">
-        <v>2</v>
-      </c>
-      <c r="H23" s="17">
-        <v>1</v>
-      </c>
-      <c r="I23" s="17">
-        <v>2</v>
-      </c>
-      <c r="K23" s="17">
-        <v>5</v>
-      </c>
-      <c r="L23" s="17">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="20">
-        <v>6</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="E24" s="17">
-        <v>6</v>
-      </c>
-      <c r="F24" s="17">
-        <v>6</v>
-      </c>
-      <c r="G24" s="17">
-        <v>2</v>
-      </c>
-      <c r="H24" s="17">
-        <v>2</v>
-      </c>
-      <c r="I24" s="17">
-        <v>2</v>
-      </c>
-      <c r="K24" s="17">
-        <v>6</v>
-      </c>
-      <c r="L24" s="17">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="20">
-        <v>7</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="E25" s="17">
-        <v>7</v>
-      </c>
-      <c r="F25" s="17">
-        <v>7</v>
-      </c>
-      <c r="G25" s="17">
-        <v>2</v>
-      </c>
-      <c r="H25" s="17">
-        <v>3</v>
-      </c>
-      <c r="I25" s="17">
-        <v>2</v>
-      </c>
-      <c r="K25" s="17">
-        <v>7</v>
-      </c>
-      <c r="L25" s="17">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="20">
-        <v>8</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="E26" s="17">
-        <v>8</v>
-      </c>
-      <c r="F26" s="17">
-        <v>8</v>
-      </c>
-      <c r="G26" s="17">
-        <v>2</v>
-      </c>
-      <c r="H26" s="17">
-        <v>4</v>
-      </c>
-      <c r="I26" s="17">
-        <v>2</v>
-      </c>
-      <c r="K26" s="17">
-        <v>8</v>
-      </c>
-      <c r="L26" s="17">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="21"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="17">
-        <v>1</v>
-      </c>
-      <c r="B31" s="17">
-        <v>1</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="21"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="17">
-        <v>1</v>
-      </c>
-      <c r="B35" s="17">
-        <v>1</v>
-      </c>
-      <c r="C35" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="17">
-        <v>2</v>
-      </c>
-      <c r="B36" s="17">
-        <v>1</v>
-      </c>
-      <c r="C36" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="17">
-        <v>3</v>
-      </c>
-      <c r="B37" s="17">
-        <v>1</v>
-      </c>
-      <c r="C37" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="17">
-        <v>4</v>
-      </c>
-      <c r="B38" s="17">
-        <v>1</v>
-      </c>
-      <c r="C38" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="17">
-        <v>5</v>
-      </c>
-      <c r="B39" s="17">
-        <v>1</v>
-      </c>
-      <c r="C39" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="17">
-        <v>6</v>
-      </c>
-      <c r="B40" s="17">
-        <v>1</v>
-      </c>
-      <c r="C40" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="17">
-        <v>7</v>
-      </c>
-      <c r="B41" s="17">
-        <v>1</v>
-      </c>
-      <c r="C41" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="17">
-        <v>8</v>
-      </c>
-      <c r="B42" s="17">
-        <v>1</v>
-      </c>
-      <c r="C42" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="33" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="17">
-        <v>1</v>
-      </c>
-      <c r="B46" s="17">
-        <v>1</v>
-      </c>
-      <c r="C46" s="17">
-        <v>1</v>
-      </c>
-      <c r="D46" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="D49" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="E49" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="F49" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="H49" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="I49" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="J49" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="K49" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="L49" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="17">
-        <v>1</v>
-      </c>
-      <c r="B50" s="17">
-        <v>1</v>
-      </c>
-      <c r="C50" s="17">
-        <v>0</v>
-      </c>
-      <c r="D50" s="17">
-        <v>2</v>
-      </c>
-      <c r="E50" s="17">
-        <v>50000</v>
-      </c>
-      <c r="F50" s="17">
-        <v>2500000</v>
-      </c>
-      <c r="G50" s="17">
-        <v>0</v>
-      </c>
-      <c r="H50" s="17">
-        <v>0</v>
-      </c>
-      <c r="I50" s="17">
-        <v>0</v>
-      </c>
-      <c r="J50" s="17">
-        <v>0</v>
-      </c>
-      <c r="K50" s="17">
-        <v>0</v>
-      </c>
-      <c r="L50" s="17">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="53" orientation="landscape" r:id="rId1"/>
-</worksheet>
 </file>